--- a/data/trans_dic/P04D$notiene-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 18,81</t>
+          <t>10,67; 18,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,92; 56,05</t>
+          <t>42,84; 55,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,49; 24,76</t>
+          <t>13,41; 24,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,49; 24,12</t>
+          <t>14,22; 24,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,3; 50,5</t>
+          <t>38,41; 50,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,01; 23,66</t>
+          <t>14,99; 24,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,93; 20,56</t>
+          <t>13,76; 20,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,66; 51,36</t>
+          <t>42,92; 51,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,81; 22,26</t>
+          <t>15,31; 22,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 11,08</t>
+          <t>5,67; 11,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,07; 30,99</t>
+          <t>23,4; 31,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 14,97</t>
+          <t>7,83; 15,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 11,44</t>
+          <t>6,2; 11,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,48; 27,24</t>
+          <t>19,24; 26,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 13,33</t>
+          <t>8,79; 13,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 10,26</t>
+          <t>6,69; 10,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,06; 27,74</t>
+          <t>22,24; 27,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,32; 13,93</t>
+          <t>9,07; 13,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,62</t>
+          <t>0,29; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,77</t>
+          <t>0,86; 3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,25</t>
+          <t>1,74; 6,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>0,29; 2,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,55</t>
+          <t>0,27; 2,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,78</t>
+          <t>1,15; 3,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,84</t>
+          <t>0,43; 1,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,4</t>
+          <t>0,71; 2,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,25</t>
+          <t>1,82; 4,37</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,78</t>
+          <t>1,06; 5,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,76</t>
+          <t>2,32; 6,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,58</t>
+          <t>1,54; 7,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,63</t>
+          <t>1,31; 4,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,7</t>
+          <t>3,03; 7,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 51,67</t>
+          <t>3,78; 52,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,36</t>
+          <t>1,6; 4,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,16</t>
+          <t>3,18; 6,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 37,51</t>
+          <t>3,64; 38,18</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 8,26</t>
+          <t>2,4; 8,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,77</t>
+          <t>0,44; 4,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,79</t>
+          <t>0,09; 2,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,36</t>
+          <t>3,21; 9,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,77</t>
+          <t>0,81; 4,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,17</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,72</t>
+          <t>3,23; 7,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,24</t>
+          <t>0,85; 3,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,15</t>
+          <t>0,12; 1,1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,71; 39,9</t>
+          <t>28,93; 40,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,16</t>
+          <t>0,69; 4,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,82; 40,24</t>
+          <t>28,93; 40,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,93</t>
+          <t>1,03; 3,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,73</t>
+          <t>0,18; 1,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,31; 38,72</t>
+          <t>30,58; 38,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,3</t>
+          <t>1,15; 3,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,04</t>
+          <t>0,94; 3,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,25; 24,16</t>
+          <t>16,87; 23,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,08; 36,96</t>
+          <t>28,03; 37,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,0</t>
+          <t>1,52; 4,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,21</t>
+          <t>16,83; 23,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,76; 34,66</t>
+          <t>10,9; 34,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,13</t>
+          <t>1,33; 2,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,83; 22,38</t>
+          <t>17,84; 22,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,29; 34,16</t>
+          <t>18,96; 34,1</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,27</t>
+          <t>1,83; 4,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,64</t>
+          <t>0,26; 1,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,07</t>
+          <t>0,76; 3,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,9</t>
+          <t>1,0; 2,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,97</t>
+          <t>0,5; 1,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,73</t>
+          <t>1,62; 3,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,17</t>
+          <t>1,66; 3,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,45</t>
+          <t>0,47; 1,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,97</t>
+          <t>1,17; 2,87</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,99</t>
+          <t>3,42; 4,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,48; 17,02</t>
+          <t>14,4; 17,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,26; 11,87</t>
+          <t>8,0; 11,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,25</t>
+          <t>3,76; 5,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,33; 15,82</t>
+          <t>13,35; 15,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,14</t>
+          <t>9,82; 17,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,85; 4,87</t>
+          <t>3,87; 4,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,35; 15,96</t>
+          <t>14,18; 15,97</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,78; 14,79</t>
+          <t>9,82; 14,13</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene calefacción ni aparatos de calefacción en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42287</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>145605</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>56858</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54976</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>127895</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>52757</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>97263</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>273500</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>109614</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31253; 55119</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>125834; 164036</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41760; 77618</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>40681; 69491</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>110902; 144513</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>43407; 69672</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>79657; 117273</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>249999; 299368</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>92007; 134939</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>41137</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>136028</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>57176</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>44892</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>120737</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>56546</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>86028</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>256765</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>113722</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28567; 56143</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>117588; 158070</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40595; 78546</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32322; 60383</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100627; 140486</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45277; 70082</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>68569; 104346</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>228066; 285966</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>93685; 138316</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2847</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6212</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11272</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2873</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7741</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6030</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9085</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19012</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>940; 7601</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2740; 11855</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5467; 19396</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>982; 9157</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>894; 7944</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4013; 13040</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2844; 13059</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4641; 15745</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12041; 28980</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10456</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15039</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11670</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10251</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18766</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>88249</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20708</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33805</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>99919</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3940; 20472</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8595; 24196</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4827; 23754</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5110; 18455</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11749; 29336</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17890; 247989</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12180; 33832</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>24107; 47176</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>28597; 300054</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9520</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2952</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12281</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4667</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21800</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7618</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1825</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5094; 17350</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>935; 8866</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>161; 4029</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7053; 21101</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1765; 10476</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2581</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13978; 32657</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3651; 14262</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>523; 4806</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>90467</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5142</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2059</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>94275</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5341</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>184742</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10483</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5899</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>76123; 107524</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1867; 10958</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7226</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>79025; 111497</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2637; 9948</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>972; 8907</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>163988; 207409</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6047; 17890</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11683</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>131899</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>201542</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>17354</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>136952</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>214879</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>29038</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>268851</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>416421</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6259; 20284</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>110782; 152325</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>174152; 230515</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>10577; 28512</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>116336; 159569</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>92110; 291900</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>18072; 40457</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>240423; 304923</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>278006; 500141</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>22268</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5369</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>16813</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>14579</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>8630</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>17487</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>36846</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>13998</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>34300</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>14181; 33664</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2039; 11977</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>7009; 29512</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>8245; 24088</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>4123; 15985</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>11636; 26302</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>26554; 52790</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>7487; 23084</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>19205; 47225</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>142116</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>533571</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>361472</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>159575</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>514794</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>443825</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>301691</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1048365</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>805297</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>117068; 167283</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>488903; 580562</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>276342; 413108</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>133591; 184342</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>473334; 561205</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>363645; 641776</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>269870; 337742</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>984256; 1108322</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>703057; 1011512</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>